--- a/db/information.xlsx
+++ b/db/information.xlsx
@@ -397,92 +397,1020 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
   <sheetData>
     <row r="1">
       <c r="A1" t="str">
-        <v>Name</v>
+        <v>profileName</v>
       </c>
       <c r="B1" t="str">
-        <v>Proxy</v>
+        <v>browser</v>
       </c>
       <c r="C1" t="str">
-        <v>Agent</v>
+        <v>os</v>
       </c>
       <c r="D1" t="str">
-        <v>StartURL</v>
+        <v>version</v>
       </c>
       <c r="E1" t="str">
-        <v>ChromeVersion</v>
+        <v>userAgent</v>
       </c>
       <c r="F1" t="str">
-        <v>Delay</v>
+        <v>screen</v>
       </c>
       <c r="G1" t="str">
-        <v>Created</v>
+        <v>cpu</v>
       </c>
       <c r="H1" t="str">
-        <v>Path</v>
+        <v>languages</v>
+      </c>
+      <c r="I1" t="str">
+        <v>startURL</v>
+      </c>
+      <c r="J1" t="str">
+        <v>delayOpenSeconds</v>
+      </c>
+      <c r="K1" t="str">
+        <v>webRTC</v>
+      </c>
+      <c r="L1" t="str">
+        <v>getlocation</v>
+      </c>
+      <c r="M1" t="str">
+        <v>timeZone</v>
+      </c>
+      <c r="N1" t="str">
+        <v>clientRects</v>
+      </c>
+      <c r="O1" t="str">
+        <v>audioContext</v>
+      </c>
+      <c r="P1" t="str">
+        <v>fonts</v>
+      </c>
+      <c r="Q1" t="str">
+        <v>isRunning</v>
+      </c>
+      <c r="R1" t="str">
+        <v>created</v>
+      </c>
+      <c r="S1" t="str">
+        <v>pathSave</v>
+      </c>
+      <c r="T1" t="str">
+        <v>proxy</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>Profile 1</v>
+        <v>cuong Nef</v>
       </c>
       <c r="B2" t="str">
-        <v/>
+        <v>chrome</v>
       </c>
       <c r="C2" t="str">
+        <v/>
+      </c>
+      <c r="D2">
+        <v>130</v>
+      </c>
+      <c r="E2" t="str">
         <v>Mozilla/5.0 (Windows NT 10.0; Win64; x64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/132.0.0.0 Safari/537.36</v>
       </c>
-      <c r="D2" t="str">
-        <v/>
-      </c>
-      <c r="E2">
-        <v>130</v>
-      </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-      <c r="G2" t="str">
-        <v>15:55 4/2/25</v>
+      <c r="F2" t="str">
+        <v>1920x1080</v>
+      </c>
+      <c r="G2">
+        <v>4</v>
       </c>
       <c r="H2" t="str">
-        <v>E:\cuong-mmo\chromeProfile\Profile 1</v>
+        <v>vn</v>
+      </c>
+      <c r="I2" t="str">
+        <v/>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2" t="str">
+        <v>real</v>
+      </c>
+      <c r="L2" t="str">
+        <v>prompt</v>
+      </c>
+      <c r="M2" t="str">
+        <v/>
+      </c>
+      <c r="N2" t="str">
+        <v>off</v>
+      </c>
+      <c r="O2" t="str">
+        <v>off</v>
+      </c>
+      <c r="P2" t="str">
+        <v>off</v>
+      </c>
+      <c r="Q2" t="b">
+        <v>0</v>
+      </c>
+      <c r="R2" t="str">
+        <v>14:17 5/2/25</v>
+      </c>
+      <c r="S2" t="str">
+        <v>E:\cuong-mmo\chromeProfile\cuong Nef</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>Profile 12</v>
+        <v>Phy 123</v>
       </c>
       <c r="B3" t="str">
-        <v/>
+        <v>chrome</v>
       </c>
       <c r="C3" t="str">
+        <v/>
+      </c>
+      <c r="D3">
+        <v>130</v>
+      </c>
+      <c r="E3" t="str">
+        <v>Mozilla/5.0 (Windows NT 10.0; Win64; x64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/132.0.0.0 Safari/537.36</v>
+      </c>
+      <c r="F3" t="str">
+        <v>1920x1080</v>
+      </c>
+      <c r="G3">
+        <v>4</v>
+      </c>
+      <c r="H3" t="str">
+        <v>vn</v>
+      </c>
+      <c r="I3" t="str">
+        <v>https://zingnews.vn</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3" t="str">
+        <v>real</v>
+      </c>
+      <c r="L3" t="str">
+        <v>prompt</v>
+      </c>
+      <c r="M3" t="str">
+        <v/>
+      </c>
+      <c r="N3" t="str">
+        <v>off</v>
+      </c>
+      <c r="O3" t="str">
+        <v>off</v>
+      </c>
+      <c r="P3" t="str">
+        <v>off</v>
+      </c>
+      <c r="Q3" t="b">
+        <v>0</v>
+      </c>
+      <c r="R3" t="str">
+        <v>14:38 5/2/25</v>
+      </c>
+      <c r="S3" t="str">
+        <v>E:\cuong-mmo\chromeProfile\Phy 123</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>HGello</v>
+      </c>
+      <c r="B4" t="str">
+        <v>chrome</v>
+      </c>
+      <c r="C4" t="str">
+        <v/>
+      </c>
+      <c r="D4">
+        <v>130</v>
+      </c>
+      <c r="E4" t="str">
+        <v>Mozilla/5.0 (Windows NT 10.0; Win64; x64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/132.0.0.0 Safari/537.36</v>
+      </c>
+      <c r="F4" t="str">
+        <v>1920x1080</v>
+      </c>
+      <c r="G4">
+        <v>4</v>
+      </c>
+      <c r="H4" t="str">
+        <v>vn</v>
+      </c>
+      <c r="I4" t="str">
+        <v/>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4" t="str">
+        <v>real</v>
+      </c>
+      <c r="L4" t="str">
+        <v>prompt</v>
+      </c>
+      <c r="M4" t="str">
+        <v/>
+      </c>
+      <c r="N4" t="str">
+        <v>off</v>
+      </c>
+      <c r="O4" t="str">
+        <v>off</v>
+      </c>
+      <c r="P4" t="str">
+        <v>off</v>
+      </c>
+      <c r="Q4" t="b">
+        <v>0</v>
+      </c>
+      <c r="R4" t="str">
+        <v>15:52 5/2/25</v>
+      </c>
+      <c r="S4" t="str">
+        <v>E:\cuong-mmo\chromeProfile\HGello</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <v>HGello 123</v>
+      </c>
+      <c r="B5" t="str">
+        <v>chrome</v>
+      </c>
+      <c r="C5" t="str">
+        <v/>
+      </c>
+      <c r="D5">
+        <v>130</v>
+      </c>
+      <c r="E5" t="str">
         <v>Mozilla/5.0 (Windows NT 6.1; Win64; x64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/102.0.5005.115 Safari/537.36</v>
       </c>
-      <c r="D3" t="str">
-        <v/>
-      </c>
-      <c r="E3">
-        <v>130</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-      <c r="G3" t="str">
-        <v>15:55 4/2/25</v>
-      </c>
-      <c r="H3" t="str">
-        <v>E:\cuong-mmo\chromeProfile\Profile 12</v>
+      <c r="F5" t="str">
+        <v>1920x1080</v>
+      </c>
+      <c r="G5">
+        <v>4</v>
+      </c>
+      <c r="H5" t="str">
+        <v>vn</v>
+      </c>
+      <c r="I5" t="str">
+        <v/>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5" t="str">
+        <v>real</v>
+      </c>
+      <c r="L5" t="str">
+        <v>prompt</v>
+      </c>
+      <c r="M5" t="str">
+        <v/>
+      </c>
+      <c r="N5" t="str">
+        <v>off</v>
+      </c>
+      <c r="O5" t="str">
+        <v>off</v>
+      </c>
+      <c r="P5" t="str">
+        <v>off</v>
+      </c>
+      <c r="Q5" t="b">
+        <v>0</v>
+      </c>
+      <c r="R5" t="str">
+        <v>15:52 5/2/25</v>
+      </c>
+      <c r="S5" t="str">
+        <v>E:\cuong-mmo\chromeProfile\HGello 123</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <v>HGello 123 3121</v>
+      </c>
+      <c r="B6" t="str">
+        <v>chrome</v>
+      </c>
+      <c r="C6" t="str">
+        <v/>
+      </c>
+      <c r="D6">
+        <v>130</v>
+      </c>
+      <c r="E6" t="str">
+        <v>Mozilla/5.0 (Windows NT 10.0; Win64; x64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/110.0.5481.77 Safari/537.36</v>
+      </c>
+      <c r="F6" t="str">
+        <v>1920x1080</v>
+      </c>
+      <c r="G6">
+        <v>4</v>
+      </c>
+      <c r="H6" t="str">
+        <v>vn</v>
+      </c>
+      <c r="I6" t="str">
+        <v/>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6" t="str">
+        <v>real</v>
+      </c>
+      <c r="L6" t="str">
+        <v>prompt</v>
+      </c>
+      <c r="M6" t="str">
+        <v/>
+      </c>
+      <c r="N6" t="str">
+        <v>off</v>
+      </c>
+      <c r="O6" t="str">
+        <v>off</v>
+      </c>
+      <c r="P6" t="str">
+        <v>off</v>
+      </c>
+      <c r="Q6" t="b">
+        <v>0</v>
+      </c>
+      <c r="R6" t="str">
+        <v>15:52 5/2/25</v>
+      </c>
+      <c r="S6" t="str">
+        <v>E:\cuong-mmo\chromeProfile\HGello 123 3121</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <v>kfklf;kql;fk;qf;lqsf</v>
+      </c>
+      <c r="B7" t="str">
+        <v>chrome</v>
+      </c>
+      <c r="C7" t="str">
+        <v/>
+      </c>
+      <c r="D7">
+        <v>130</v>
+      </c>
+      <c r="E7" t="str">
+        <v>Mozilla/5.0 (Windows NT 10.0; Win64; x64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/132.0.0.0 Safari/537.36</v>
+      </c>
+      <c r="F7" t="str">
+        <v>1920x1080</v>
+      </c>
+      <c r="G7">
+        <v>4</v>
+      </c>
+      <c r="H7" t="str">
+        <v>vn</v>
+      </c>
+      <c r="I7" t="str">
+        <v/>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7" t="str">
+        <v>real</v>
+      </c>
+      <c r="L7" t="str">
+        <v>prompt</v>
+      </c>
+      <c r="M7" t="str">
+        <v/>
+      </c>
+      <c r="N7" t="str">
+        <v>off</v>
+      </c>
+      <c r="O7" t="str">
+        <v>off</v>
+      </c>
+      <c r="P7" t="str">
+        <v>off</v>
+      </c>
+      <c r="Q7" t="b">
+        <v>0</v>
+      </c>
+      <c r="R7" t="str">
+        <v>17:09 5/2/25</v>
+      </c>
+      <c r="S7" t="str">
+        <v>E:\cuong-mmo\chromeProfile\kfklf;kql;fk;qf;lqsf</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="str">
+        <v>kfklf;kql;fk;qf;lqsf</v>
+      </c>
+      <c r="B8" t="str">
+        <v>chrome</v>
+      </c>
+      <c r="C8" t="str">
+        <v/>
+      </c>
+      <c r="D8">
+        <v>130</v>
+      </c>
+      <c r="E8" t="str">
+        <v>Mozilla/5.0 (Windows NT 10.0; Win64; x64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/132.0.0.0 Safari/537.36</v>
+      </c>
+      <c r="F8" t="str">
+        <v>1920x1080</v>
+      </c>
+      <c r="G8">
+        <v>4</v>
+      </c>
+      <c r="H8" t="str">
+        <v>vn</v>
+      </c>
+      <c r="I8" t="str">
+        <v/>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8" t="str">
+        <v>real</v>
+      </c>
+      <c r="L8" t="str">
+        <v>prompt</v>
+      </c>
+      <c r="M8" t="str">
+        <v/>
+      </c>
+      <c r="N8" t="str">
+        <v>off</v>
+      </c>
+      <c r="O8" t="str">
+        <v>off</v>
+      </c>
+      <c r="P8" t="str">
+        <v>off</v>
+      </c>
+      <c r="Q8" t="b">
+        <v>0</v>
+      </c>
+      <c r="R8" t="str">
+        <v>17:09 5/2/25</v>
+      </c>
+      <c r="S8" t="str">
+        <v>E:\cuong-mmo\chromeProfile\kfklf;kql;fk;qf;lqsf</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="str">
+        <v>kfklf;kql;fk;qf;lqsf</v>
+      </c>
+      <c r="B9" t="str">
+        <v>chrome</v>
+      </c>
+      <c r="C9" t="str">
+        <v/>
+      </c>
+      <c r="D9">
+        <v>130</v>
+      </c>
+      <c r="E9" t="str">
+        <v>Mozilla/5.0 (Windows NT 10.0; Win64; x64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/132.0.0.0 Safari/537.36</v>
+      </c>
+      <c r="F9" t="str">
+        <v>1920x1080</v>
+      </c>
+      <c r="G9">
+        <v>4</v>
+      </c>
+      <c r="H9" t="str">
+        <v>vn</v>
+      </c>
+      <c r="I9" t="str">
+        <v/>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9" t="str">
+        <v>real</v>
+      </c>
+      <c r="L9" t="str">
+        <v>prompt</v>
+      </c>
+      <c r="M9" t="str">
+        <v/>
+      </c>
+      <c r="N9" t="str">
+        <v>off</v>
+      </c>
+      <c r="O9" t="str">
+        <v>off</v>
+      </c>
+      <c r="P9" t="str">
+        <v>off</v>
+      </c>
+      <c r="Q9" t="b">
+        <v>0</v>
+      </c>
+      <c r="R9" t="str">
+        <v>17:09 5/2/25</v>
+      </c>
+      <c r="S9" t="str">
+        <v>E:\cuong-mmo\chromeProfile\kfklf;kql;fk;qf;lqsf</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="str">
+        <v>kfklf;kql;fk;qf;lqsf</v>
+      </c>
+      <c r="B10" t="str">
+        <v>chrome</v>
+      </c>
+      <c r="C10" t="str">
+        <v/>
+      </c>
+      <c r="D10">
+        <v>130</v>
+      </c>
+      <c r="E10" t="str">
+        <v>Mozilla/5.0 (Windows NT 10.0; Win64; x64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/132.0.0.0 Safari/537.36</v>
+      </c>
+      <c r="F10" t="str">
+        <v>1920x1080</v>
+      </c>
+      <c r="G10">
+        <v>4</v>
+      </c>
+      <c r="H10" t="str">
+        <v>vn</v>
+      </c>
+      <c r="I10" t="str">
+        <v/>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10" t="str">
+        <v>real</v>
+      </c>
+      <c r="L10" t="str">
+        <v>prompt</v>
+      </c>
+      <c r="M10" t="str">
+        <v/>
+      </c>
+      <c r="N10" t="str">
+        <v>off</v>
+      </c>
+      <c r="O10" t="str">
+        <v>off</v>
+      </c>
+      <c r="P10" t="str">
+        <v>off</v>
+      </c>
+      <c r="Q10" t="b">
+        <v>0</v>
+      </c>
+      <c r="R10" t="str">
+        <v>17:09 5/2/25</v>
+      </c>
+      <c r="S10" t="str">
+        <v>E:\cuong-mmo\chromeProfile\kfklf;kql;fk;qf;lqsf</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="str">
+        <v/>
+      </c>
+      <c r="B11" t="str">
+        <v>chrome</v>
+      </c>
+      <c r="C11" t="str">
+        <v/>
+      </c>
+      <c r="D11">
+        <v>130</v>
+      </c>
+      <c r="E11" t="str">
+        <v>Mozilla/5.0 (Windows NT 10.0; Win64; x64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/132.0.0.0 Safari/537.36</v>
+      </c>
+      <c r="F11" t="str">
+        <v>1920x1080</v>
+      </c>
+      <c r="G11">
+        <v>4</v>
+      </c>
+      <c r="H11" t="str">
+        <v>vn</v>
+      </c>
+      <c r="I11" t="str">
+        <v/>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11" t="str">
+        <v>real</v>
+      </c>
+      <c r="L11" t="str">
+        <v>prompt</v>
+      </c>
+      <c r="M11" t="str">
+        <v/>
+      </c>
+      <c r="N11" t="str">
+        <v>off</v>
+      </c>
+      <c r="O11" t="str">
+        <v>off</v>
+      </c>
+      <c r="P11" t="str">
+        <v>off</v>
+      </c>
+      <c r="Q11" t="b">
+        <v>0</v>
+      </c>
+      <c r="R11" t="str">
+        <v>17:10 5/2/25</v>
+      </c>
+      <c r="S11" t="str">
+        <v>E:\cuong-mmo\chromeProfile\</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="str">
+        <v>LSDAJKFLJKFJKDF</v>
+      </c>
+      <c r="B12" t="str">
+        <v>chrome</v>
+      </c>
+      <c r="C12" t="str">
+        <v/>
+      </c>
+      <c r="D12">
+        <v>130</v>
+      </c>
+      <c r="E12" t="str">
+        <v>Mozilla/5.0 (Windows NT 10.0; Win64; x64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/132.0.0.0 Safari/537.36</v>
+      </c>
+      <c r="F12" t="str">
+        <v>1920x1080</v>
+      </c>
+      <c r="G12">
+        <v>4</v>
+      </c>
+      <c r="H12" t="str">
+        <v>vn</v>
+      </c>
+      <c r="I12" t="str">
+        <v/>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12" t="str">
+        <v>real</v>
+      </c>
+      <c r="L12" t="str">
+        <v>prompt</v>
+      </c>
+      <c r="M12" t="str">
+        <v/>
+      </c>
+      <c r="N12" t="str">
+        <v>off</v>
+      </c>
+      <c r="O12" t="str">
+        <v>off</v>
+      </c>
+      <c r="P12" t="str">
+        <v>off</v>
+      </c>
+      <c r="Q12" t="b">
+        <v>0</v>
+      </c>
+      <c r="R12" t="str">
+        <v>17:10 5/2/25</v>
+      </c>
+      <c r="S12" t="str">
+        <v>E:\cuong-mmo\chromeProfile\LSDAJKFLJKFJKDF</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="str">
+        <v>LSDAJKFLJKFJKDF</v>
+      </c>
+      <c r="B13" t="str">
+        <v>chrome</v>
+      </c>
+      <c r="C13" t="str">
+        <v/>
+      </c>
+      <c r="D13">
+        <v>130</v>
+      </c>
+      <c r="E13" t="str">
+        <v>Mozilla/5.0 (Windows NT 10.0; Win64; x64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/132.0.0.0 Safari/537.36</v>
+      </c>
+      <c r="F13" t="str">
+        <v>1920x1080</v>
+      </c>
+      <c r="G13">
+        <v>4</v>
+      </c>
+      <c r="H13" t="str">
+        <v>vn</v>
+      </c>
+      <c r="I13" t="str">
+        <v/>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13" t="str">
+        <v>real</v>
+      </c>
+      <c r="L13" t="str">
+        <v>prompt</v>
+      </c>
+      <c r="M13" t="str">
+        <v/>
+      </c>
+      <c r="N13" t="str">
+        <v>off</v>
+      </c>
+      <c r="O13" t="str">
+        <v>off</v>
+      </c>
+      <c r="P13" t="str">
+        <v>off</v>
+      </c>
+      <c r="Q13" t="b">
+        <v>0</v>
+      </c>
+      <c r="R13" t="str">
+        <v>17:10 5/2/25</v>
+      </c>
+      <c r="S13" t="str">
+        <v>E:\cuong-mmo\chromeProfile\LSDAJKFLJKFJKDF</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="str">
+        <v>FDQWFQWFWQ</v>
+      </c>
+      <c r="B14" t="str">
+        <v>chrome</v>
+      </c>
+      <c r="C14" t="str">
+        <v/>
+      </c>
+      <c r="D14">
+        <v>130</v>
+      </c>
+      <c r="E14" t="str">
+        <v>Mozilla/5.0 (Windows NT 10.0; Win64; x64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/132.0.0.0 Safari/537.36</v>
+      </c>
+      <c r="F14" t="str">
+        <v>1920x1080</v>
+      </c>
+      <c r="G14">
+        <v>4</v>
+      </c>
+      <c r="H14" t="str">
+        <v>vn</v>
+      </c>
+      <c r="I14" t="str">
+        <v/>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14" t="str">
+        <v>real</v>
+      </c>
+      <c r="L14" t="str">
+        <v>prompt</v>
+      </c>
+      <c r="M14" t="str">
+        <v/>
+      </c>
+      <c r="N14" t="str">
+        <v>off</v>
+      </c>
+      <c r="O14" t="str">
+        <v>off</v>
+      </c>
+      <c r="P14" t="str">
+        <v>off</v>
+      </c>
+      <c r="Q14" t="b">
+        <v>0</v>
+      </c>
+      <c r="R14" t="str">
+        <v>17:10 5/2/25</v>
+      </c>
+      <c r="S14" t="str">
+        <v>E:\cuong-mmo\chromeProfile\FDQWFQWFWQ</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="str">
+        <v>qdqswdsqddq</v>
+      </c>
+      <c r="B15" t="str">
+        <v>chrome</v>
+      </c>
+      <c r="C15" t="str">
+        <v/>
+      </c>
+      <c r="D15">
+        <v>130</v>
+      </c>
+      <c r="E15" t="str">
+        <v>Mozilla/5.0 (Windows NT 10.0; Win64; x64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/132.0.0.0 Safari/537.36</v>
+      </c>
+      <c r="F15" t="str">
+        <v>1920x1080</v>
+      </c>
+      <c r="G15">
+        <v>4</v>
+      </c>
+      <c r="H15" t="str">
+        <v>vn</v>
+      </c>
+      <c r="I15" t="str">
+        <v/>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15" t="str">
+        <v>real</v>
+      </c>
+      <c r="L15" t="str">
+        <v>prompt</v>
+      </c>
+      <c r="M15" t="str">
+        <v/>
+      </c>
+      <c r="N15" t="str">
+        <v>off</v>
+      </c>
+      <c r="O15" t="str">
+        <v>off</v>
+      </c>
+      <c r="P15" t="str">
+        <v>off</v>
+      </c>
+      <c r="Q15" t="b">
+        <v>0</v>
+      </c>
+      <c r="R15" t="str">
+        <v>17:11 5/2/25</v>
+      </c>
+      <c r="S15" t="str">
+        <v>E:\cuong-mmo\chromeProfile\qdqswdsqddq</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="str">
+        <v>SQFQSDFSQ</v>
+      </c>
+      <c r="B16" t="str">
+        <v>chrome</v>
+      </c>
+      <c r="C16" t="str">
+        <v/>
+      </c>
+      <c r="D16">
+        <v>130</v>
+      </c>
+      <c r="E16" t="str">
+        <v>Mozilla/5.0 (Windows NT 10.0; Win64; x64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/132.0.0.0 Safari/537.36</v>
+      </c>
+      <c r="F16" t="str">
+        <v>1920x1080</v>
+      </c>
+      <c r="G16">
+        <v>4</v>
+      </c>
+      <c r="H16" t="str">
+        <v>vn</v>
+      </c>
+      <c r="I16" t="str">
+        <v/>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16" t="str">
+        <v>real</v>
+      </c>
+      <c r="L16" t="str">
+        <v>prompt</v>
+      </c>
+      <c r="M16" t="str">
+        <v/>
+      </c>
+      <c r="N16" t="str">
+        <v>off</v>
+      </c>
+      <c r="O16" t="str">
+        <v>off</v>
+      </c>
+      <c r="P16" t="str">
+        <v>off</v>
+      </c>
+      <c r="Q16" t="b">
+        <v>0</v>
+      </c>
+      <c r="R16" t="str">
+        <v>17:11 5/2/25</v>
+      </c>
+      <c r="S16" t="str">
+        <v>E:\cuong-mmo\chromeProfile\SQFQSDFSQ</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="str">
+        <v>xcazf f1</v>
+      </c>
+      <c r="B17" t="str">
+        <v>chrome</v>
+      </c>
+      <c r="C17" t="str">
+        <v/>
+      </c>
+      <c r="D17">
+        <v>130</v>
+      </c>
+      <c r="E17" t="str">
+        <v>Mozilla/5.0 (Windows NT 10.0; Win64; x64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/132.0.0.0 Safari/537.36</v>
+      </c>
+      <c r="F17" t="str">
+        <v>1920x1080</v>
+      </c>
+      <c r="G17">
+        <v>4</v>
+      </c>
+      <c r="H17" t="str">
+        <v>vn</v>
+      </c>
+      <c r="I17" t="str">
+        <v/>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17" t="str">
+        <v>real</v>
+      </c>
+      <c r="L17" t="str">
+        <v>prompt</v>
+      </c>
+      <c r="M17" t="str">
+        <v/>
+      </c>
+      <c r="N17" t="str">
+        <v>off</v>
+      </c>
+      <c r="O17" t="str">
+        <v>off</v>
+      </c>
+      <c r="P17" t="str">
+        <v>off</v>
+      </c>
+      <c r="Q17" t="b">
+        <v>0</v>
+      </c>
+      <c r="R17" t="str">
+        <v>17:14 5/2/25</v>
+      </c>
+      <c r="S17" t="str">
+        <v>E:\cuong-mmo\chromeProfile\xcazf f1</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:H3"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:T17"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/db/information.xlsx
+++ b/db/information.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T3"/>
+  <dimension ref="A1:U3"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -413,60 +413,63 @@
         <v>os</v>
       </c>
       <c r="D1" t="str">
+        <v>userAgent</v>
+      </c>
+      <c r="E1" t="str">
+        <v>screen</v>
+      </c>
+      <c r="F1" t="str">
+        <v>cpu</v>
+      </c>
+      <c r="G1" t="str">
+        <v>languages</v>
+      </c>
+      <c r="H1" t="str">
+        <v>startURL</v>
+      </c>
+      <c r="I1" t="str">
+        <v>delayOpenSeconds</v>
+      </c>
+      <c r="J1" t="str">
+        <v>webRTC</v>
+      </c>
+      <c r="K1" t="str">
+        <v>getlocation</v>
+      </c>
+      <c r="L1" t="str">
+        <v>timeZone</v>
+      </c>
+      <c r="M1" t="str">
+        <v>clientRects</v>
+      </c>
+      <c r="N1" t="str">
+        <v>audioContext</v>
+      </c>
+      <c r="O1" t="str">
+        <v>fonts</v>
+      </c>
+      <c r="P1" t="str">
+        <v>isRunning</v>
+      </c>
+      <c r="Q1" t="str">
+        <v>created</v>
+      </c>
+      <c r="R1" t="str">
+        <v>id</v>
+      </c>
+      <c r="S1" t="str">
         <v>version</v>
       </c>
-      <c r="E1" t="str">
-        <v>userAgent</v>
-      </c>
-      <c r="F1" t="str">
-        <v>screen</v>
-      </c>
-      <c r="G1" t="str">
-        <v>cpu</v>
-      </c>
-      <c r="H1" t="str">
-        <v>languages</v>
-      </c>
-      <c r="I1" t="str">
-        <v>startURL</v>
-      </c>
-      <c r="J1" t="str">
-        <v>delayOpenSeconds</v>
-      </c>
-      <c r="K1" t="str">
-        <v>webRTC</v>
-      </c>
-      <c r="L1" t="str">
-        <v>getlocation</v>
-      </c>
-      <c r="M1" t="str">
-        <v>timeZone</v>
-      </c>
-      <c r="N1" t="str">
-        <v>clientRects</v>
-      </c>
-      <c r="O1" t="str">
-        <v>audioContext</v>
-      </c>
-      <c r="P1" t="str">
-        <v>fonts</v>
-      </c>
-      <c r="Q1" t="str">
-        <v>isRunning</v>
-      </c>
-      <c r="R1" t="str">
-        <v>created</v>
-      </c>
-      <c r="S1" t="str">
+      <c r="T1" t="str">
         <v>pathSave</v>
       </c>
-      <c r="T1" t="str">
+      <c r="U1" t="str">
         <v>proxy</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>Cuong mm</v>
+        <v>Cuong KK9</v>
       </c>
       <c r="B2" t="str">
         <v>chrome</v>
@@ -474,35 +477,35 @@
       <c r="C2" t="str">
         <v/>
       </c>
-      <c r="D2">
-        <v>130</v>
+      <c r="D2" t="str">
+        <v>Mozilla/5.0 (Windows NT 10.0; Win64; x64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/132.0.0.0 Safari/537.36</v>
       </c>
       <c r="E2" t="str">
-        <v>Mozilla/5.0 (Windows NT 10.0; Win64; x64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/132.0.0.0 Safari/537.36</v>
-      </c>
-      <c r="F2" t="str">
         <v>1920x1080</v>
       </c>
-      <c r="G2">
+      <c r="F2">
         <v>4</v>
       </c>
+      <c r="G2" t="str">
+        <v>vn</v>
+      </c>
       <c r="H2" t="str">
-        <v>vn</v>
-      </c>
-      <c r="I2" t="str">
         <v/>
       </c>
-      <c r="J2">
+      <c r="I2">
         <v>0</v>
       </c>
+      <c r="J2" t="str">
+        <v>real</v>
+      </c>
       <c r="K2" t="str">
-        <v>real</v>
+        <v>prompt</v>
       </c>
       <c r="L2" t="str">
-        <v>prompt</v>
+        <v/>
       </c>
       <c r="M2" t="str">
-        <v/>
+        <v>off</v>
       </c>
       <c r="N2" t="str">
         <v>off</v>
@@ -510,22 +513,25 @@
       <c r="O2" t="str">
         <v>off</v>
       </c>
-      <c r="P2" t="str">
-        <v>off</v>
-      </c>
-      <c r="Q2" t="b">
+      <c r="P2" t="b">
         <v>0</v>
       </c>
+      <c r="Q2" t="str">
+        <v>15:10 7/2/25</v>
+      </c>
       <c r="R2" t="str">
-        <v>09:47 6/2/25</v>
-      </c>
-      <c r="S2" t="str">
-        <v>E:\cuong-mmo\chromeProfile\Cuong mm</v>
+        <v>e5640726-544d-4243-9c2e-f51bf95df8a8</v>
+      </c>
+      <c r="S2">
+        <v>130</v>
+      </c>
+      <c r="T2" t="str">
+        <v>E:\cuong-mmo\chromeProfile\Cuong KK9</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>Cuong mm 1</v>
+        <v>PHY 99</v>
       </c>
       <c r="B3" t="str">
         <v>chrome</v>
@@ -533,35 +539,35 @@
       <c r="C3" t="str">
         <v/>
       </c>
-      <c r="D3">
-        <v>130</v>
+      <c r="D3" t="str">
+        <v>Mozilla/5.0 (Windows NT 6.1; Win64; x64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/107.0.5304.107 Safari/537.36</v>
       </c>
       <c r="E3" t="str">
-        <v>Mozilla/5.0 (Windows NT 6.1; Win64; x64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/102.0.5005.115 Safari/537.36</v>
-      </c>
-      <c r="F3" t="str">
         <v>1920x1080</v>
       </c>
-      <c r="G3">
+      <c r="F3">
         <v>4</v>
       </c>
+      <c r="G3" t="str">
+        <v>vn</v>
+      </c>
       <c r="H3" t="str">
-        <v>vn</v>
-      </c>
-      <c r="I3" t="str">
+        <v>http://zingnews.vn</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3" t="str">
+        <v>real</v>
+      </c>
+      <c r="K3" t="str">
+        <v>prompt</v>
+      </c>
+      <c r="L3" t="str">
         <v/>
       </c>
-      <c r="J3">
-        <v>0</v>
-      </c>
-      <c r="K3" t="str">
-        <v>real</v>
-      </c>
-      <c r="L3" t="str">
-        <v>prompt</v>
-      </c>
       <c r="M3" t="str">
-        <v/>
+        <v>off</v>
       </c>
       <c r="N3" t="str">
         <v>off</v>
@@ -569,22 +575,25 @@
       <c r="O3" t="str">
         <v>off</v>
       </c>
-      <c r="P3" t="str">
-        <v>off</v>
-      </c>
-      <c r="Q3" t="b">
+      <c r="P3" t="b">
         <v>0</v>
       </c>
+      <c r="Q3" t="str">
+        <v>15:10 7/2/25</v>
+      </c>
       <c r="R3" t="str">
-        <v>09:47 6/2/25</v>
-      </c>
-      <c r="S3" t="str">
-        <v>E:\cuong-mmo\chromeProfile\Cuong mm 1</v>
+        <v>dc0cdacb-e42b-4a60-8cfd-1d40dd65048a</v>
+      </c>
+      <c r="S3">
+        <v>130</v>
+      </c>
+      <c r="T3" t="str">
+        <v>E:\cuong-mmo\chromeProfile\PHY 99</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:T3"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:U3"/>
   </ignoredErrors>
 </worksheet>
 </file>